--- a/需求规格说明书及文件架构.xlsx
+++ b/需求规格说明书及文件架构.xlsx
@@ -11,12 +11,15 @@
     <sheet name="文件架构" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">文件架构!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,10 +114,265 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dashboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速登录页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;!--背景图片自动更换--&gt; 
+&lt;script src="js/background/jquery.min.js"&gt;&lt;/script&gt;
+&lt;script src="js/background/supersized.3.2.7.min.js"&gt;&lt;/script&gt;
+&lt;script src="js/background/supersized-init.js"&gt;&lt;/script&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!--#include file="menu.asp"--&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!--#include file="menu.asp"--&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;!-- 表格 --&gt;
+&lt;script  src="js/table/custom.js"&gt;&lt;/script&gt;
+ &lt;!-- 左侧菜单，放在每个页面底部--&gt;
+&lt;script src="js/menu/jquery-2.1.4.min.js"&gt;&lt;/script&gt;
+&lt;script src="js/menu/bootstrap.min.js"&gt;&lt;/script&gt;
+&lt;script src="js/menu/plugins/pace.min.js"&gt;&lt;/script&gt;
+&lt;script src="js/menu/main.js"&gt;&lt;/script&gt;
+&lt;script  src="js/shortcutKey/bootstrap-notify.min.js"&gt;&lt;/script&gt;
+&lt;!-- QRcode 扫二维码，打开网页 &lt;script src="js/QRcode/jquery-2.1.4.min.js"&gt;&lt;/script&gt;--&gt;
+&lt;script src="js/QRcode/qrcode.js"&gt;&lt;/script&gt;
+&lt;script src="js/QRcode/utf.js"&gt;&lt;/script&gt;
+&lt;script src="js/QRcode/jquery.qrcode.js" &gt;&lt;/script&gt;
+&lt;script &gt;
+function makeCode(url) {
+var ip = "http://&lt;% =getServerIp()%&gt;"
+$("#qrcode").qrcode({
+render: "canvas",
+text: ip,
+width : "80",               //二维码的宽度
+height : "80",              //二维码的高度
+background : "#ffffff",       //二维码的后景色
+foreground : "#000000",        //二维码的前景色
+src: 'QRcode/logo.png'             //二维码中间的图片
+});
+}
+function createQrcode () {
+var url = '';//$('#url').val();
+makeCode(url);
+}
+&lt;/script&gt; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!-- 表格 --&gt;
+&lt;script  src="js/table/custom.js"&gt;&lt;/script&gt;
+ &lt;!-- 左侧菜单，放在每个页面底部--&gt;
+&lt;script src="js/menu/jquery-2.1.4.min.js"&gt;&lt;/script&gt;
+&lt;script src="js/menu/bootstrap.min.js"&gt;&lt;/script&gt;
+&lt;script src="js/menu/plugins/pace.min.js"&gt;&lt;/script&gt;
+&lt;script src="js/menu/main.js"&gt;&lt;/script&gt;
+&lt;script  src="js/shortcutKey/bootstrap-notify.min.js"&gt;&lt;/script&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!--#include file="menu.asp"--&gt;
+&lt;!--#include file="ajaxMain.asp"--&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!-- 页面百分比显示--&gt;
+&lt;!-- 用于页面百分比显示1/3 --&gt;
+&lt;link href="js/percent/percent.css" rel="stylesheet" type="text/css" /&gt;
+&lt;script src="js/percent/percent.js"&gt;&lt;/script&gt;
+&lt;!-- 左侧菜单，放在每个页面底部--&gt;
+&lt;script src="js/menu/jquery-2.1.4.min.js"&gt;&lt;/script&gt;
+&lt;script src="js/menu/bootstrap.min.js"&gt;&lt;/script&gt;
+&lt;script src="js/menu/plugins/pace.min.js"&gt;&lt;/script&gt;
+&lt;script src="js/menu/main.js"&gt;&lt;/script&gt;
+&lt;script src="js/shortcutKey/bootstrap-notify.min.js"&gt;&lt;/script&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>articleOther</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>articleAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!-- 左侧菜单，放在每个页面底部--&gt;
+&lt;script src="js/menu/jquery-2.1.4.min.js"&gt;&lt;/script&gt;
+&lt;script src="js/menu/bootstrap.min.js"&gt;&lt;/script&gt;
+&lt;script src="js/menu/plugins/pace.min.js"&gt;&lt;/script&gt;
+&lt;script src="js/menu/main.js"&gt;&lt;/script&gt;
+&lt;script  src="js/shortcutKey/bootstrap-notify.min.js"&gt;&lt;/script&gt;
+&lt;!-- 下拉框效果 --&gt;
+&lt;script src="js/dropDownList/select2.full.min.js"&gt;&lt;/script&gt;
+&lt;!-- 功能：二级联动，选择类别，然后选择标签 --&gt;
+&lt;script&gt;
+$(function () {
+//Initialize Select2 Elements
+$(".select2").select2();
+$(".select4").select2();
+});
+&lt;%
+'二级数据保存到数组
+Dim count2,rsClass2,sqlClass2
+set rsClass2=server.createobject("adodb.recordset")
+sqlClass2="select * from tblTag where tagState='on' order by tagName" 
+rsClass2.open sqlClass2,conn,1,1 %&gt;
+var subval2 = new Array();
+//数组结构：一级根值,二级根值,二级显示值
+&lt;% count2 = 0
+do while not rsClass2.eof %&gt;
+subval2[&lt;%=count2%&gt;] = new Array('&lt;%=rsClass2("sortId")%&gt;','&lt;%=rsClass2("tagId")%&gt;','&lt;%=rsClass2("tagName")%&gt;')
+&lt;% count2 = count2 + 1
+rsClass2.movenext
+loop
+rsClass2.close %&gt;
+function changeselect1(locationid)
+{ if (document.addForm.tagIdOld.value == ""){document.addForm.tagIdOld.value= 0;}
+document.addForm.tagIdOld.length = 0;
+document.addForm.tagIdOld.options[0] = new Option('/ ','0');
+for (i=0; i&lt;subval2.length; i++){
+if (subval2[i][0] == locationid){document.addForm.tagIdOld.options[document.addForm.tagIdOld.length] = new Option(subval2[i][2],subval2[i][1]);}}}
+&lt;/script&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!-- 百度编辑器--&gt; 
+&lt;script src="ueditor/ueditor.config.js"&gt;&lt;/script&gt;
+&lt;script src="ueditor/ueditor.all.min.js"&gt; &lt;/script&gt; 
+&lt;script src="ueditor/lang/zh-cn/zh-cn.js"&gt;&lt;/script&gt; 
+&lt;!-- 退出弹框效果 --&gt;
+&lt;script src="js/exit/jquery-2.1.4.min.js"&gt;&lt;/script&gt; 
+&lt;script type="text/javascript" src="js/exit/bootstrap-notify.min.js"&gt;&lt;/script&gt;
+&lt;script type="text/javascript" src="js/exit/sweetalert.min.js"&gt;&lt;/script&gt;
+&lt;script type="text/javascript" src="js/exit/custom.js"&gt;&lt;/script&gt;
+&lt;!-- top按钮 cd-top-arrow.svg箭头--&gt;
+&lt;link href="js/topButton/zzsc.css" rel="stylesheet" type="text/css" /&gt;
+&lt;script src="js/topButton/jquery.min.js"&gt;&lt;/script&gt;
+&lt;script src="js/topButton/zzsc.js"&gt;&lt;/script&gt; 
+&lt;!-- 快捷鍵列表 --&gt;
+&lt;link href="js/shortcutKey/custom.css" rel="stylesheet" type="text/css" /&gt;
+&lt;script src="js/shortcutKey/custom.js"&gt;&lt;/script&gt;
+&lt;!-- 表单校验 --&gt;
+&lt;script src="js/check.js"&gt;&lt;/script&gt;
+&lt;!-- 表格 --&gt;
+&lt;script  src="js/table/jquery.dataTables.min.js"&gt;&lt;/script&gt;
+&lt;script  src="js/table/dataTables.bootstrap.min.js"&gt;&lt;/script&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>articleEdit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无搜索内容页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索内容详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!-- 用于页面百分比显示1/3 --&gt;
+&lt;link href="js/percent/percent.css" rel="stylesheet" type="text/css" /&gt;
+&lt;script src="js/percent/percent.js"&gt;&lt;/script&gt;
+&lt;!-- 左侧菜单，放在每个页面底部--&gt;
+&lt;script src="js/menu/jquery-2.1.4.min.js"&gt;&lt;/script&gt;
+&lt;script src="js/menu/bootstrap.min.js"&gt;&lt;/script&gt;
+&lt;script src="js/menu/plugins/pace.min.js"&gt;&lt;/script&gt;
+&lt;script src="js/menu/main.js"&gt;&lt;/script&gt;
+&lt;script src="js/shortcutKey/bootstrap-notify.min.js"&gt;&lt;/script&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;!--#include file="conn.asp"--&gt;
-&lt;!--#include file="common/function.asp"--&gt;
-&lt;!--#include file="common/constant.asp"--&gt;
+&lt;!--#include file="function.asp"--&gt;
+&lt;!--#include file="constant.asp"--&gt;
 &lt;!--#include file="md5.asp"--&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!--#include file="conn.asp"--&gt;
+&lt;!--#include file="function.asp"--&gt;
+&lt;!--#include file="constant.asp"--&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +380,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,8 +410,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +430,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -179,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -192,6 +465,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,28 +887,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="56.5546875" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -637,12 +923,155 @@
         <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="374.4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="129.6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/需求规格说明书及文件架构.xlsx
+++ b/需求规格说明书及文件架构.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="角色权限" sheetId="1" r:id="rId1"/>
     <sheet name="文件架构" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="后台" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">后台!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">文件架构!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -373,6 +374,65 @@
     <t>&lt;!--#include file="conn.asp"--&gt;
 &lt;!--#include file="function.asp"--&gt;
 &lt;!--#include file="constant.asp"--&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bmain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!--#include file="bFrame.asp"--&gt;</t>
+  </si>
+  <si>
+    <t>仪表盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;script src="js/jquery-3.2.1.min.js"&gt;&lt;/script&gt;
+&lt;script src="js/bootstrap.min.js"&gt;&lt;/script&gt;
+&lt;script src="js/plugins/pace.min.js"&gt;&lt;/script&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bframe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!--#include file="../conn.asp"--&gt;
+&lt;!--#include file="../constant.asp"--&gt;
+&lt;!--#include file="../function.asp"--&gt;
+&lt;!--#include file="../md5.asp"--&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!-- top按钮 cd-top-arrow.svg箭头--&gt;
+&lt;link href="../js/topButton/zzsc.css" rel="stylesheet" type="text/css" /&gt;
+&lt;script src="../js/topButton/jquery.min.js"&gt;&lt;/script&gt;
+&lt;script src="../js/topButton/zzsc.js"&gt;&lt;/script&gt; 
+&lt;script src="js/lib/moment.min.js"&gt;&lt;/script&gt;
+&lt;script src="js/lib/jquery.min.js"&gt;&lt;/script&gt;
+&lt;script src="js/lib/popper.min.js"&gt;&lt;/script&gt;
+&lt;script src="js/bootstrap.min.js"&gt;&lt;/script&gt;
+&lt;script src="js/chosen-js/chosen.jquery.js"&gt;&lt;/script&gt;
+&lt;script src="js/custom.js"&gt;&lt;/script&gt;
+&lt;script src="js/fullcalendar/fullcalendar.js"&gt;&lt;/script&gt;
+&lt;script src="js/daterangepicker/daterangepicker.min.js"&gt;&lt;/script&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;link href="js/basestyle/style.css" rel="stylesheet" &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +480,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,6 +499,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -452,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -470,6 +536,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -890,9 +959,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -910,7 +979,9 @@
       <c r="B1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="D1" s="5" t="s">
         <v>29</v>
       </c>
@@ -1077,12 +1148,71 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.21875" customWidth="1"/>
+    <col min="4" max="4" width="67.5546875" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="216" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
